--- a/2/4/Base 2014=100 2014 a 2021 - Trimestral.xlsx
+++ b/2/4/Base 2014=100 2014 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Serie</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,6 +1108,26 @@
         <v>118.94</v>
       </c>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>160.31</v>
+      </c>
+      <c r="C32">
+        <v>132.85</v>
+      </c>
+      <c r="D32">
+        <v>186.67</v>
+      </c>
+      <c r="E32">
+        <v>138.2</v>
+      </c>
+      <c r="F32">
+        <v>118.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
